--- a/data/trans_camb/P18_6_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,74</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76,8</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>82,01</t>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-4,6</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 3,53</t>
+          <t>-5,48; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,06</t>
+          <t>-7,39; 0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,7</t>
+          <t>-6,4; 2,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,73; 92,11</t>
+          <t>-4,06; 6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 2,0</t>
+          <t>-2,81; 12,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 0,5</t>
+          <t>-5,4; 11,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,44; -0,78</t>
+          <t>-13,06; 1,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,03; 83,45</t>
+          <t>-12,81; 0,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 1,29</t>
+          <t>-14,44; -1,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -0,51</t>
+          <t>-9,82; 6,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -0,45</t>
+          <t>-12,81; 2,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,92; 86,24</t>
+          <t>-6,06; 7,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 1,25</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -0,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; -0,6</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 4,99</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 5,51</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 6,63</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-65,06%</t>
+          <t>-63,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-41,65%</t>
+          <t>-42,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1714,89%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,65%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-49,2%</t>
+          <t>-36,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>504,6%</t>
+          <t>-40,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>-49,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-44,25%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-45,78%</t>
+          <t>-35,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>828,88%</t>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-32,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-45,26%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-46,45%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-3,55%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,89%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,92; 134,4</t>
+          <t>-81,86; 190,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,37</t>
+          <t>-98,33; 72,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 139,79</t>
+          <t>-100,0; 121,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>926,33; 3846,85</t>
+          <t>-65,41; 283,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,87; 20,95</t>
+          <t>-42,34; 494,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 6,1</t>
+          <t>-49,51; 247,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,8; -5,97</t>
+          <t>-67,53; 27,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>337,28; 803,01</t>
+          <t>-68,24; 10,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 19,91</t>
+          <t>-74,8; -9,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-68,55; -5,43</t>
+          <t>-50,56; 55,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-70,0; -3,22</t>
+          <t>-71,97; 34,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>587,83; 1176,22</t>
+          <t>-55,45; 165,93</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-59,65; 18,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-67,75; -6,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-70,71; -6,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-40,98; 60,12</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-48,96; 83,72</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-38,86; 116,17</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>79,62</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,97</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,43</t>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 8,0</t>
+          <t>-12,99; 11,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 7,28</t>
+          <t>-12,51; 8,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 9,9</t>
+          <t>-10,98; 8,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68,8; 86,78</t>
+          <t>-15,12; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -1,31</t>
+          <t>-7,46; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 4,31</t>
+          <t>-4,93; 8,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 1,99</t>
+          <t>-14,59; -1,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>61,53; 75,85</t>
+          <t>-8,7; 4,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 0,74</t>
+          <t>-11,19; 1,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 3,74</t>
+          <t>-5,46; 10,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 3,11</t>
+          <t>-11,8; 4,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,98; 79,78</t>
+          <t>-6,2; 8,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; 2,7</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 3,66</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 3,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 4,03</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 3,71</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 6,52</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,92%</t>
+          <t>-20,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,18%</t>
+          <t>-25,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>589,14%</t>
+          <t>-33,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,53%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,95%</t>
+          <t>-47,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>412,11%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,83%</t>
+          <t>-25,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>494,27%</t>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-34,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-19,02%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-16,82%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-11,22%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 103,72</t>
+          <t>-72,2; 132,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 104,27</t>
+          <t>-68,18; 127,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 110,48</t>
+          <t>-56,87; 89,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>283,25; 1104,68</t>
+          <t>-71,56; 31,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,78; -8,83</t>
+          <t>-61,92; 101,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 34,9</t>
+          <t>-52,61; 257,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 16,34</t>
+          <t>-71,96; -10,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>286,52; 604,32</t>
+          <t>-44,47; 35,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 11,48</t>
+          <t>-53,56; 15,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-47,71; 35,15</t>
+          <t>-29,48; 75,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 26,65</t>
+          <t>-49,95; 35,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>331,61; 695,89</t>
+          <t>-36,02; 76,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-60,67; 33,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-49,24; 32,03</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-44,91; 31,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-41,41; 36,07</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-41,2; 32,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-29,29; 83,31</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>81,93</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70,34</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>76,32</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,03</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,34</t>
+          <t>-8,6; 1,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 0,0</t>
+          <t>-9,14; -0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 1,86</t>
+          <t>-7,98; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,98; 86,58</t>
+          <t>-2,2; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -1,69</t>
+          <t>-13,21; -0,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 3,29</t>
+          <t>-5,35; 5,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,65</t>
+          <t>-11,16; -1,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,91; 75,42</t>
+          <t>-7,33; 3,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -2,16</t>
+          <t>-4,79; 6,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; -0,06</t>
+          <t>-1,58; 11,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,13</t>
+          <t>-10,91; 1,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>72,23; 79,74</t>
+          <t>-5,26; 7,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; -1,1</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 0,66</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 2,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 8,49</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; -0,99</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 4,46</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,87%</t>
+          <t>-30,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-42,79%</t>
+          <t>-41,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,63%</t>
+          <t>-30,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>782,09%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,0%</t>
+          <t>-45,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>-41,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>467,46%</t>
+          <t>-12,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,96%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-25,86%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>-22,18%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>596,56%</t>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-37,03%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-23,7%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-9,16%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>31,97%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-33,53%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 18,11</t>
+          <t>-65,28; 18,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 4,08</t>
+          <t>-68,91; 2,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 24,77</t>
+          <t>-59,48; 24,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>529,42; 1205,92</t>
+          <t>-19,92; 117,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,91; -12,22</t>
+          <t>-73,21; -2,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 26,82</t>
+          <t>-52,83; 116,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 45,98</t>
+          <t>-63,1; -10,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>340,83; 638,99</t>
+          <t>-41,25; 24,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,2; -18,62</t>
+          <t>-26,66; 52,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -0,48</t>
+          <t>-8,46; 90,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 19,9</t>
+          <t>-47,62; 12,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>477,0; 754,15</t>
+          <t>-29,48; 64,52</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-55,91; -9,75</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; 6,63</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-31,85; 25,37</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 80,89</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-54,49; -5,57</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-32,24; 50,78</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>78,65</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>65,77</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>72,12</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 3,13</t>
+          <t>-8,91; 3,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 5,4</t>
+          <t>-6,48; 5,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,18</t>
+          <t>-5,15; 6,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,67; 84,32</t>
+          <t>-3,57; 7,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,3</t>
+          <t>-4,17; 7,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 6,7</t>
+          <t>-9,11; 4,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,98</t>
+          <t>-9,61; 0,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,86; 71,89</t>
+          <t>-3,97; 6,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 0,38</t>
+          <t>-5,68; 4,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,44</t>
+          <t>-3,04; 9,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,69</t>
+          <t>-7,54; 6,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>66,8; 76,4</t>
+          <t>-8,85; 6,48</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 0,41</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 4,28</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 3,57</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 7,02</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 4,7</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 3,09</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>-23,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1111,57%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,01%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>-18,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-28,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>429,9%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>633,44%</t>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-27,39%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-10,08%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,34; 79,22</t>
+          <t>-74,55; 79,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,01; 117,61</t>
+          <t>-55,87; 130,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,58; 139,95</t>
+          <t>-50,4; 144,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>477,99; 2073,74</t>
+          <t>-36,66; 180,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 1,95</t>
+          <t>-34,54; 90,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 53,44</t>
+          <t>-53,0; 48,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 32,21</t>
+          <t>-53,22; 7,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>317,07; 591,72</t>
+          <t>-23,2; 49,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 5,94</t>
+          <t>-33,23; 38,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 47,21</t>
+          <t>-17,53; 75,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 39,23</t>
+          <t>-34,3; 37,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>454,07; 839,12</t>
+          <t>-37,8; 44,36</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-54,23; 4,97</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-25,5; 44,11</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-28,5; 36,15</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 73,96</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-25,27; 36,26</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-32,81; 21,85</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>91,47</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>-0,31</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>66,88</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
           <t>-4,47</t>
         </is>
       </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>78,95</t>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,98</t>
+          <t>-4,92; 1,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,13</t>
+          <t>-1,67; 6,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,39</t>
+          <t>-2,77; 4,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>87,15; 94,65</t>
+          <t>-0,49; 8,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -1,02</t>
+          <t>-4,96; 6,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 6,04</t>
+          <t>0,08; 10,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 2,72</t>
+          <t>-13,75; -0,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>59,97; 73,43</t>
+          <t>-7,08; 6,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; -0,98</t>
+          <t>-9,36; 3,56</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,89</t>
+          <t>-6,47; 7,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 3,0</t>
+          <t>-9,23; 5,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>74,8; 82,84</t>
+          <t>-9,42; 4,54</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; -0,92</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 4,92</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 2,81</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 6,77</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 4,01</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 5,59</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-35,54%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2010,74%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-46,99%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>134,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-18,21%</t>
+          <t>-47,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>419,55%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-43,86%</t>
+          <t>-17,03%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>774,79%</t>
+          <t>-14,86%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-43,85%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-7,2%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>-3,02%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,36; 84,28</t>
+          <t>-76,73; 72,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 199,52</t>
+          <t>-33,6; 236,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 159,81</t>
+          <t>-45,28; 171,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1162,86; 4143,27</t>
+          <t>-11,27; 301,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -6,54</t>
+          <t>-47,63; 106,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 48,6</t>
+          <t>-6,06; 532,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 22,4</t>
+          <t>-72,84; -5,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>293,49; 621,58</t>
+          <t>-37,34; 51,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-65,25; -8,57</t>
+          <t>-48,5; 28,18</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 60,58</t>
+          <t>-35,01; 64,36</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 38,41</t>
+          <t>-46,04; 49,57</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>588,14; 1081,72</t>
+          <t>-45,47; 35,3</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-66,84; -8,29</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-22,61; 59,65</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-35,8; 35,57</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-17,38; 79,65</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-33,82; 39,42</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-24,07; 64,64</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>92,63</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>74,51</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>82,25</t>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-4,12</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 5,14</t>
+          <t>-7,77; 0,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,42</t>
+          <t>-5,67; 5,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -0,13</t>
+          <t>-8,08; -0,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>87,49; 95,64</t>
+          <t>-5,22; 5,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 1,83</t>
+          <t>-6,04; 3,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 1,84</t>
+          <t>0,17; 7,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,38</t>
+          <t>-10,11; 2,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>66,01; 80,9</t>
+          <t>-8,94; 1,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,94</t>
+          <t>-5,6; 9,34</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,65</t>
+          <t>-7,06; 6,81</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 1,86</t>
+          <t>-11,55; 3,61</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>77,22; 86,43</t>
+          <t>-12,88; 2,72</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 0,5</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 2,14</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 3,32</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 4,26</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 2,28</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 3,61</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-64,86%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-8,49%</t>
+          <t>-12,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>-63,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1524,65%</t>
+          <t>-4,39%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-37,23%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>257,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-33,32%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>593,63%</t>
+          <t>-25,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-38,5%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-22,2%</t>
+          <t>-5,98%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-22,43%</t>
+          <t>-32,1%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>839,86%</t>
+          <t>-38,06%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-42,03%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-22,28%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-15,02%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-6,51%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-28,05%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-17,23%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-94,08; 181,41</t>
+          <t>-92,43; 49,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 179,06</t>
+          <t>-72,78; 179,26</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-90,99; 32,0</t>
+          <t>-91,8; 25,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>854,42; 2875,23</t>
+          <t>-65,66; 161,45</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-68,7; 20,7</t>
+          <t>-71,21; 196,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-58,25; 18,33</t>
+          <t>-46,15; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 60,36</t>
+          <t>-67,32; 25,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>397,47; 839,09</t>
+          <t>-56,4; 20,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-67,1; 11,4</t>
+          <t>-38,03; 91,12</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-50,68; 22,49</t>
+          <t>-46,94; 66,83</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 24,17</t>
+          <t>-72,1; 51,4</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>616,44; 1195,64</t>
+          <t>-72,94; 39,4</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-67,73; 8,75</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-51,03; 27,29</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-44,76; 39,75</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-43,4; 53,75</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-61,9; 34,41</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-56,73; 78,99</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>84,69</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>70,45</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>77,48</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,0</t>
+          <t>-4,65; 0,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,86</t>
+          <t>-4,0; 1,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,05</t>
+          <t>-3,86; 1,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>81,79; 87,11</t>
+          <t>-1,58; 3,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -3,6</t>
+          <t>-3,0; 2,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,36</t>
+          <t>-0,86; 3,92</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,09</t>
+          <t>-8,39; -3,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>67,51; 73,06</t>
+          <t>-4,37; 0,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -2,58</t>
+          <t>-4,31; 0,62</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,21</t>
+          <t>-1,35; 4,35</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,0</t>
+          <t>-6,51; -0,17</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>75,63; 79,22</t>
+          <t>-4,3; 1,71</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; -2,32</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; -0,02</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 0,26</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 3,24</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 0,15</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 1,83</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-29,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-15,02%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1062,15%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-39,89%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-15,0%</t>
+          <t>-38,78%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>469,84%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-37,05%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>-18,74%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>669,87%</t>
+          <t>-7,97%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-35,75%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 3,11</t>
+          <t>-51,16; 13,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 14,22</t>
+          <t>-42,44; 20,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 17,14</t>
+          <t>-40,4; 20,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>827,85; 1366,14</t>
+          <t>-16,07; 55,2</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-51,87; -25,91</t>
+          <t>-28,81; 25,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 2,84</t>
+          <t>-11,22; 64,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-28,86; -0,54</t>
+          <t>-50,92; -25,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>405,51; 539,66</t>
+          <t>-26,95; 3,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,83; -23,11</t>
+          <t>-26,72; 4,02</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-29,38; -1,73</t>
+          <t>-8,6; 31,18</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -0,0</t>
+          <t>-35,01; -0,96</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>590,99; 763,9</t>
+          <t>-26,3; 13,34</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; -21,55</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; -0,1</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-27,33; 2,57</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 29,93</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-27,18; 1,63</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; 18,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
